--- a/frontend-cemos/public/assets/content/direito/8-cnudm/script/fc4.xlsx
+++ b/frontend-cemos/public/assets/content/direito/8-cnudm/script/fc4.xlsx
@@ -473,23 +473,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Qual é a proporção exigida entre a superfície marítima e a superfície terrestre para o traçado de linhas de base arquipelágicas?</t>
+          <t>Qual é a definição jurídica de "arquipélago" estabelecida pela Convenção?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A razão deve situar-se entre um para um e nove para um.</t>
+          <t>É um grupo de ilhas, águas e outros elementos tão estreitamente relacionados que formem intrinsecamente uma entidade geográfica, econômica e política, conforme o Artigo 46, alínea 'b'.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pág 13</t>
+          <t>Pág. 13</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Parte IV</t>
+          <t>Parte IV - Estados Arquipélagos</t>
         </is>
       </c>
     </row>
@@ -501,23 +501,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Qual é o comprimento máximo permitido para as linhas de base arquipelágicas, segundo a regra geral e a exceção?</t>
+          <t>Qual é a condição de proporção (razão) entre superfícies exigida para o traçado de linhas de base arquipelágicas retas?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Não deve exceder 100 milhas marítimas, admitindo-se que até 3% das linhas cheguem a 125 milhas marítimas.</t>
+          <t>A razão entre a superfície marítima e a superfície terrestre deve situar-se entre um para um (1:1) e nove para um (9:1), conforme o Artigo 47, parágrafo 1.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pág 13</t>
+          <t>Pág. 13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Parte IV</t>
+          <t>Parte IV - Estados Arquipélagos</t>
         </is>
       </c>
     </row>
@@ -529,23 +529,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>É permitido traçar linhas de base arquipelágicas em direção a baixios a descoberto?</t>
+          <t>Qual é o limite de comprimento para as linhas de base arquipelágicas?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Apenas se houver faróis ou instalações permanentes acima do nível do mar sobre eles, ou se estiverem a uma distância da ilha inferior à largura do mar territorial.</t>
+          <t>Não deve exceder 100 milhas marítimas, admitindo-se que até 3% das linhas possam chegar a um máximo de 125 milhas, conforme o Artigo 47, parágrafo 2.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pág 13</t>
+          <t>Pág. 13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Parte IV</t>
+          <t>Parte IV - Estados Arquipélagos</t>
         </is>
       </c>
     </row>
@@ -557,23 +557,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Além das águas, a que outras áreas se estende a soberania do Estado arquipélago nas águas arquipelágicas?</t>
+          <t>A soberania do Estado arquipélago sobre as águas arquipelágicas abrange o espaço aéreo?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ao espaço aéreo sobrejacente, ao leito e ao subsolo, bem como aos recursos neles existentes.</t>
+          <t>Sim, a soberania estende-se ao espaço aéreo sobrejacente, bem como ao leito, subsolo e recursos neles existentes, conforme o Artigo 49, parágrafo 2.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pág 14</t>
+          <t>Pág. 14</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Parte IV</t>
+          <t>Parte IV - Estados Arquipélagos</t>
         </is>
       </c>
     </row>
@@ -585,23 +585,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Qual é a obrigação do Estado arquipélago em relação a cabos submarinos existentes que passam pelas suas águas sem tocar terra?</t>
+          <t>Como o Estado arquipélago deve proceder em relação aos cabos submarinos existentes de outros Estados que passam por suas águas sem tocar terra?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Respeitá-los e permitir a sua conservação e substituição, mediante devida notificação.</t>
+          <t>Deve respeitar os cabos existentes e permitir sua conservação e substituição, mediante devida notificação, conforme o Artigo 51, parágrafo 2.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pág 14</t>
+          <t>Pág. 14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Parte IV</t>
+          <t>Parte IV - Estados Arquipélagos</t>
         </is>
       </c>
     </row>
@@ -613,23 +613,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>O Estado arquipélago pode suspender a passagem inocente de navios estrangeiros em suas águas arquipelágicas?</t>
+          <t>Sob quais condições o Estado arquipélago pode suspender a passagem inocente de navios estrangeiros em suas águas?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sim, temporariamente, em áreas determinadas, sem discriminação e após publicação, se indispensável para sua segurança.</t>
+          <t>Pode suspender temporariamente em áreas determinadas, sem discriminação, se indispensável à segurança e após devida publicação, conforme o Artigo 52, parágrafo 2.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pág 14</t>
+          <t>Pág. 14</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Parte IV</t>
+          <t>Parte IV - Estados Arquipélagos</t>
         </is>
       </c>
     </row>
@@ -641,23 +641,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Qual é o limite de desvio lateral permitido para navios e aeronaves em relação às linhas axiais das rotas marítimas arquipelágicas?</t>
+          <t>Qual é a finalidade exclusiva da passagem pelas rotas marítimas arquipelágicas?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Não podem afastar-se mais de 25 milhas marítimas para cada lado das linhas axiais (respeitando o limite de 10% da distância da costa).</t>
+          <t>Destina-se ao trânsito contínuo, rápido e sem entraves entre uma parte do alto mar (ou ZEE) e outra, no modo normal de navegação e sobrevoo, conforme o Artigo 53, parágrafo 3.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pág 15</t>
+          <t>Pág. 15</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Parte IV</t>
+          <t>Parte IV - Estados Arquipélagos</t>
         </is>
       </c>
     </row>
@@ -669,23 +669,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Antes de designar ou substituir rotas marítimas ou sistemas de separação de tráfego, o que o Estado arquipélago deve fazer?</t>
+          <t>Qual é o limite de afastamento lateral permitido para navios e aeronaves em relação às linhas axiais das rotas marítimas arquipelágicas?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Submeter propostas à organização internacional competente para a sua adoção.</t>
+          <t>Não podem afastar-se mais de 25 milhas marítimas para cada lado das linhas, nem navegar a uma distância da costa inferior a 10% da distância entre os pontos mais próximos, conforme o Artigo 53, parágrafo 5.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pág 15</t>
+          <t>Pág. 15</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Parte IV</t>
+          <t>Parte IV - Estados Arquipélagos</t>
         </is>
       </c>
     </row>
@@ -697,23 +697,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Como é exercido o direito de passagem se o Estado arquipélago não designar rotas marítimas ou aéreas específicas?</t>
+          <t>Como é exercido o direito de passagem se o Estado arquipélago não designar rotas marítimas ou aéreas?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Pode ser exercido através das rotas utilizadas normalmente para a navegação internacional.</t>
+          <t>O direito pode ser exercido através das rotas utilizadas normalmente para a navegação internacional, conforme o Artigo 53, parágrafo 12.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pág 15</t>
+          <t>Pág. 15</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Parte IV</t>
+          <t>Parte IV - Estados Arquipélagos</t>
         </is>
       </c>
     </row>
